--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
   <si>
     <t>VIN</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>invalidVin</t>
+  </si>
+  <si>
+    <t>secondValid</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -583,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,6 +604,7 @@
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
@@ -847,10 +857,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>29</v>
@@ -925,22 +935,22 @@
         <v>40</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AI3">
-        <v>20000101</v>
+        <v>20010101</v>
       </c>
       <c r="AJ3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s">
         <v>58</v>
@@ -950,32 +960,236 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4">
+        <v>53080</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>214</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="4">
+        <v>2</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4">
+        <v>20020101</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4">
+        <v>53080</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>214</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5">
+        <v>20150101</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,16 +819,16 @@
         <v>58</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -935,16 +935,16 @@
         <v>40</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AI3">
         <v>20010101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,31 +595,31 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
-    <col min="38" max="38" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -843,7 +843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -959,7 +959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
